--- a/trend_results/Rivers/ManawatuatusFonterraLongburn_73a0caa5ac.xlsx
+++ b/trend_results/Rivers/ManawatuatusFonterraLongburn_73a0caa5ac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.638984449254169</v>
+        <v>0.361015550745831</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.810211109972493</v>
+        <v>0.189788890027507</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9823208630820019</v>
+        <v>0.0176791369179981</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.999304165005325</v>
+        <v>0.0006958349946748999</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0001753641896899</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.616438356164384</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.0450802932151381</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0714542710110108</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.0216386253674087</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-5.00892146834868</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0003997020181319</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.859649122807018</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.0695277321480339</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.09865832357793999</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.0308834767354497</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.650399739457754</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.680817052170816</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0578034682080925</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.190751445086705</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0003334061695726</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0001248291182501</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0092222300353912</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0173410404624277</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.763005780346821</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>305</v>
+      </c>
+      <c r="K31" t="n">
+        <v>15.3919089759798</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.91389872866559</v>
+      </c>
+      <c r="M31" t="n">
+        <v>32.0042805834468</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.04652753310812</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.468177172687331</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0843373493975904</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.91566265060241</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0566751275556269</v>
+      </c>
+      <c r="K32" t="n">
+        <v>7.31100493748828e-05</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.0011275169597672</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0015545896227821</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.12899847345403</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0062648793325</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0463576158940397</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.264900662251656</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0003334094020994</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.0001246308887594</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0005017170329669999</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.33409402099498</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.347818042422461</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.954545454545455</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0012216169448179</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0045849292150091</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.007909011247319001</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.292953703793265</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5833898311308831</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.63953488372093</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.665</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0014164127861088</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0122612779353718</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.015692795340784</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0184789665506704</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>As likely as not increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.274743862467399</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8218390804597701</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0026238968979433</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0042090800514501</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0091237402030612</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.49695017006502</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.159935327443749</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.595375722543353</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.003327011499816</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0030078066296338</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0100224667687861</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.405733109733669</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0260002524034799</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.502890173410405</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0010009555392001</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0001999178981937</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0018279117379435</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.04276640653083</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Manawatu at us Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.261832205072107</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.936046511627907</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0517008028156985</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0606354258798034</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.26421808802133</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.769357184757418</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1816987.417</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5524893.755</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/ManawatuatusFonterraLongburn_73a0caa5ac.xlsx
+++ b/trend_results/Rivers/ManawatuatusFonterraLongburn_73a0caa5ac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.618657239261899</v>
+        <v>0.047673681204639</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="H2" t="n">
-        <v>0.795918367346939</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.26</v>
+        <v>0.325</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0064636791779648</v>
+        <v>-0.0595018796992481</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.043105239894615</v>
+        <v>-0.178917821138385</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06472558143802511</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.48603045306342</v>
+        <v>-18.3082706766917</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.361015550745831</v>
+        <v>0.042428623303057</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.945454545454545</v>
+        <v>0.963636363636364</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.63</v>
+        <v>10.58</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0309971711456863</v>
+        <v>-0.0886051212938021</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.236927025788998</v>
+        <v>-0.265816236671274</v>
       </c>
       <c r="M3" t="n">
-        <v>0.142194183280562</v>
+        <v>-0.0149077393279871</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.291600857438253</v>
+        <v>-0.837477516954652</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,35 +751,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.557823366573527</v>
+        <v>0.08583835613344851</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0727272727272727</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.454545454545455</v>
+        <v>0.527272727272727</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0.019</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0016085723566897</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0012919257059519</v>
+        <v>0.0022203013658392</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.28123192596877</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,35 +842,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.350175423247956</v>
+        <v>0.885963532980513</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0363636363636364</v>
+        <v>0.0727272727272727</v>
       </c>
       <c r="H5" t="n">
-        <v>0.836363636363636</v>
+        <v>0.8545454545454541</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>770</v>
+        <v>490</v>
       </c>
       <c r="K5" t="n">
-        <v>23.8368456832087</v>
+        <v>-36.4788242730721</v>
       </c>
       <c r="L5" t="n">
-        <v>-93.1515731375333</v>
+        <v>-119.219259456332</v>
       </c>
       <c r="M5" t="n">
-        <v>196.814440876035</v>
+        <v>21.7289616492543</v>
       </c>
       <c r="N5" t="n">
-        <v>3.09569424457256</v>
+        <v>-7.44465801491266</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.932195086845082</v>
+        <v>0.930328548613985</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0408163265306122</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0618245929609785</v>
+        <v>0.0651007201651501</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0073818079566069</v>
+        <v>-0.008183054914739901</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0186224448078738</v>
+        <v>-0.0169626331604206</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00038833290234</v>
+        <v>0.0005589631368585</v>
       </c>
       <c r="N6" t="n">
-        <v>-11.9399216445567</v>
+        <v>-12.5698377744222</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1024,35 +1024,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.563949540763432</v>
+        <v>0.989475826349139</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.472727272727273</v>
+        <v>0.418181818181818</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.001003434065934</v>
+        <v>-0.0020068681318681</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0005017170329669999</v>
+        <v>-0.0003616134301579</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-11.1492673992674</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0038713865497581</v>
+        <v>0.0093922209163464</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.981818181818182</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.407</v>
+        <v>0.412</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0521785714285714</v>
+        <v>0.0411936090225564</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0187054790655796</v>
+        <v>0.0135459532771528</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0637181008927766</v>
+        <v>0.063830130014549</v>
       </c>
       <c r="N8" t="n">
-        <v>12.8202878202878</v>
+        <v>9.99844879188262</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.189788890027507</v>
+        <v>0.427961406259115</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.818181818181818</v>
+        <v>0.763636363636364</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.64</v>
+        <v>7.67</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0204621848739497</v>
+        <v>-0.0031217948717948</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.06874455018747461</v>
+        <v>-0.0352749590275619</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0171902414792445</v>
+        <v>0.0296317860149567</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.267829644946986</v>
+        <v>-0.0407013672984981</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.193727586148593</v>
+        <v>0.406831857883396</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.890909090909091</v>
+        <v>0.927272727272727</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.53</v>
+        <v>0.556</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0120412087912088</v>
+        <v>0.0030395284327323</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0285441005292938</v>
+        <v>-0.0226981736021054</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0535104313855493</v>
+        <v>0.0465974097522114</v>
       </c>
       <c r="N10" t="n">
-        <v>2.27192618702052</v>
+        <v>0.54667777567128</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.852395555715404</v>
+        <v>0.0233564956745913</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0727272727272727</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0.709090909090909</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>23</v>
+        <v>0.85</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.44940476190476</v>
+        <v>0.0399453178400547</v>
       </c>
       <c r="L11" t="n">
-        <v>-8.833814819564431</v>
+        <v>0.0005462095065887</v>
       </c>
       <c r="M11" t="n">
-        <v>0.982139401444783</v>
+        <v>0.06388876722988369</v>
       </c>
       <c r="N11" t="n">
-        <v>-6.30175983436853</v>
+        <v>4.69944915765349</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.798199317684143</v>
+        <v>0.278183940654727</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.763636363636364</v>
+        <v>0.8</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.85</v>
+        <v>0.058</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.028168380462725</v>
+        <v>0.0020991379310344</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.08415898617511521</v>
+        <v>-0.0040137362637362</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0248976794745546</v>
+        <v>0.0088867726325453</v>
       </c>
       <c r="N12" t="n">
-        <v>-3.31392711326176</v>
+        <v>3.6192033293698</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.622583357383618</v>
+        <v>0.214381346846502</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.781818181818182</v>
+        <v>0.981818181818182</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.061</v>
+        <v>10.9</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.001737630827783</v>
+        <v>0.771210753532182</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.010079319462244</v>
+        <v>-0.74641847627889</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006079113850587</v>
+        <v>3.11296854276746</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.84857512751322</v>
+        <v>7.07532801405671</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.884513396614954</v>
+        <v>0.0003728238642779</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H14" t="n">
-        <v>0.981818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>11.8</v>
+        <v>0.355</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.784019922879177</v>
+        <v>-0.0663548576586387</v>
       </c>
       <c r="L14" t="n">
-        <v>-5.0426511551563</v>
+        <v>-0.119913487133984</v>
       </c>
       <c r="M14" t="n">
-        <v>0.384613525135239</v>
+        <v>-0.0293223074756142</v>
       </c>
       <c r="N14" t="n">
-        <v>-6.6442366345693</v>
+        <v>-18.6915091996165</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6.71756062620155e-05</v>
+        <v>0.030925292757219</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0198019801980198</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.742574257425743</v>
+        <v>0.893805309734513</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.63</v>
+        <v>10.54</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.103005887529333</v>
+        <v>-0.0602060439560445</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.160278327659505</v>
+        <v>-0.100343406593406</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0482969924740265</v>
+        <v>-0.0074845976042336</v>
       </c>
       <c r="N15" t="n">
-        <v>-16.3501408776719</v>
+        <v>-0.571214838292642</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0176791369179981</v>
+        <v>0.0579923331655443</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H16" t="n">
-        <v>0.911504424778761</v>
+        <v>0.271929824561404</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>10.63</v>
+        <v>0.018</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0928618637110014</v>
+        <v>0.0004191049913941</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.17053916094956</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0218052741712476</v>
+        <v>0.0009401544401544</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.8735829135559871</v>
+        <v>2.32836106330082</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0225635269709274</v>
+        <v>0.0282043694426581</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0614035087719298</v>
+        <v>0.043859649122807</v>
       </c>
       <c r="H17" t="n">
-        <v>0.254385964912281</v>
+        <v>0.780701754385965</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.018</v>
+        <v>316</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0005435267857142</v>
+        <v>19.5060080106809</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2.50728361617752</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0010476362559267</v>
+        <v>52.1785714285714</v>
       </c>
       <c r="N17" t="n">
-        <v>3.01959325396825</v>
+        <v>6.17278734515219</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0004563803911314</v>
+        <v>0.298571825266898</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0263157894736842</v>
+        <v>0.0740740740740741</v>
       </c>
       <c r="H18" t="n">
-        <v>0.780701754385965</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>340</v>
+        <v>0.0567487616998952</v>
       </c>
       <c r="K18" t="n">
-        <v>47.5745798319328</v>
+        <v>0.0007623563633954</v>
       </c>
       <c r="L18" t="n">
-        <v>19.4330481144739</v>
+        <v>-0.0018958812778821</v>
       </c>
       <c r="M18" t="n">
-        <v>94.85580042423619</v>
+        <v>0.0032233883596638</v>
       </c>
       <c r="N18" t="n">
-        <v>13.9925234799802</v>
+        <v>1.34338854374841</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.396266552983794</v>
+        <v>0.995060235151616</v>
       </c>
       <c r="G19" t="n">
-        <v>0.101851851851852</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.916666666666667</v>
+        <v>0.324561403508772</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0573406452021942</v>
+        <v>0.011</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0002804527959279</v>
+        <v>-0.0005017170329669999</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0025703015089805</v>
+        <v>-0.0008916917749965</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003375005119817</v>
+        <v>-0.0001999178981937</v>
       </c>
       <c r="N19" t="n">
-        <v>0.489099477236445</v>
+        <v>-4.56106393606393</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.872564167440823</v>
+        <v>0.09325239312731071</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.342105263157895</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0125</v>
+        <v>0.416</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0002496582365003</v>
+        <v>0.007916748768472899</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0005997536945812</v>
+        <v>-0.0016798506822813</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0173086385350799</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.99726589200274</v>
+        <v>1.90306460780599</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0138450360614895</v>
+        <v>0.025024396726918</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.973684210526316</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3699</v>
+        <v>7.67</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0104856459330144</v>
+        <v>-0.0182018272425251</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0016506434718364</v>
+        <v>-0.0355360706773505</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0172563866316256</v>
+        <v>-0.0028275668879508</v>
       </c>
       <c r="N21" t="n">
-        <v>2.83472450203146</v>
+        <v>-0.237311958833443</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0006958349946748999</v>
+        <v>0.0902998082469621</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6754385964912279</v>
+        <v>0.843478260869565</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.67</v>
+        <v>0.556</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0365502070393375</v>
+        <v>0.0106384604555125</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0579761904761904</v>
+        <v>-0.0020265905458787</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.017201825572806</v>
+        <v>0.0210683922606197</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.476534641973109</v>
+        <v>1.91339216825764</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0087211235512552</v>
+        <v>0.0004167811273196</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.826086956521739</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.525</v>
+        <v>0.835</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0156544631667182</v>
+        <v>0.0262884405670665</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0050171703296703</v>
+        <v>0.0149271641353516</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0263120609982286</v>
+        <v>0.0366435198774868</v>
       </c>
       <c r="N23" t="n">
-        <v>2.98180250794633</v>
+        <v>3.14831623557683</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0286852484778469</v>
+        <v>0.0017642161763931</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0789473684210526</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.482456140350877</v>
+        <v>0.6052631578947369</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>0.05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.652232142857143</v>
+        <v>0.0025489532019704</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.0011255216426924</v>
       </c>
       <c r="M24" t="n">
-        <v>1.73630354860314</v>
+        <v>0.0045562190983054</v>
       </c>
       <c r="N24" t="n">
-        <v>7.24702380952381</v>
+        <v>5.09790640394088</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.000231101863227</v>
+        <v>0.0002114934819739</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.745614035087719</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.785</v>
+        <v>8.445</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0263744145199063</v>
+        <v>1.05356306990881</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0149187415189789</v>
+        <v>0.426880366295803</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0397551020408163</v>
+        <v>2.2417351817248</v>
       </c>
       <c r="N25" t="n">
-        <v>3.35979802801355</v>
+        <v>12.4755840131298</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6.11914270520704e-05</v>
+        <v>2.78086207194939e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.013986013986014</v>
       </c>
       <c r="H26" t="n">
-        <v>0.587719298245614</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0475</v>
+        <v>0.63</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0035824093816631</v>
+        <v>-0.0601588235294118</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0019300457112315</v>
+        <v>-0.09149315668656451</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0054924812030075</v>
+        <v>-0.0340671828190322</v>
       </c>
       <c r="N26" t="n">
-        <v>7.54191448771182</v>
+        <v>-9.549019607843141</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0269335288022571</v>
+        <v>0.000269506302483</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.93859649122807</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.3</v>
+        <v>10.62</v>
       </c>
       <c r="K27" t="n">
-        <v>0.479802955665025</v>
+        <v>-0.0602060439560445</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0750209900789266</v>
+        <v>-0.091140805211179</v>
       </c>
       <c r="M27" t="n">
-        <v>1.23759985270923</v>
+        <v>-0.0299165243386305</v>
       </c>
       <c r="N27" t="n">
-        <v>7.61591993119086</v>
+        <v>-0.566911901657669</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0001753641896899</v>
+        <v>0.173773484866409</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0273972602739726</v>
+        <v>0.0578034682080925</v>
       </c>
       <c r="H28" t="n">
-        <v>0.616438356164384</v>
+        <v>0.196531791907514</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9</v>
+        <v>0.018</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0450802932151381</v>
+        <v>0.0001051578219112</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0714542710110108</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0216386253674087</v>
+        <v>0.0003636137381781</v>
       </c>
       <c r="N28" t="n">
-        <v>-5.00892146834868</v>
+        <v>0.584210121728958</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.0003997020181319</v>
+        <v>0.0710830453868144</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0289017341040462</v>
       </c>
       <c r="H29" t="n">
-        <v>0.859649122807018</v>
+        <v>0.774566473988439</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>10.69</v>
+        <v>300</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0695277321480339</v>
+        <v>7.83307060255144</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.09865832357793999</v>
+        <v>-0.681203991197922</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0308834767354497</v>
+        <v>20.4294425230096</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.650399739457754</v>
+        <v>2.61102353418381</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.680817052170816</v>
+        <v>0.356724053106477</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0578034682080925</v>
+        <v>0.0783132530120482</v>
       </c>
       <c r="H30" t="n">
-        <v>0.190751445086705</v>
+        <v>0.9216867469879521</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0.019</v>
+        <v>0.0566269957463997</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.0003173217069993</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0003334061695726</v>
+        <v>-0.0007197633136902</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0001248291182501</v>
+        <v>0.0017417164679854</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>0.560371785253263</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0092222300353912</v>
+        <v>0.133826023764567</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0173410404624277</v>
+        <v>0.0429447852760736</v>
       </c>
       <c r="H31" t="n">
-        <v>0.763005780346821</v>
+        <v>0.245398773006135</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>305</v>
+        <v>0.01</v>
       </c>
       <c r="K31" t="n">
-        <v>15.3919089759798</v>
+        <v>0.0001545643922868</v>
       </c>
       <c r="L31" t="n">
-        <v>3.91389872866559</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>32.0042805834468</v>
+        <v>0.0003334094020994</v>
       </c>
       <c r="N31" t="n">
-        <v>5.04652753310812</v>
+        <v>1.54564392286886</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.468177172687331</v>
+        <v>0.277096047413894</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0843373493975904</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.91566265060241</v>
+        <v>0.950920245398773</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0566751275556269</v>
+        <v>0.42</v>
       </c>
       <c r="K32" t="n">
-        <v>7.31100493748828e-05</v>
+        <v>0.002332736264943</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0011275169597672</v>
+        <v>-0.0033237703680161</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0015545896227821</v>
+        <v>0.008116967930759399</v>
       </c>
       <c r="N32" t="n">
-        <v>0.12899847345403</v>
+        <v>0.555413396415013</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0062648793325</v>
+        <v>0.716832274249759</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0463576158940397</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.264900662251656</v>
+        <v>0.604651162790698</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01</v>
+        <v>7.67</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0003334094020994</v>
+        <v>0.0040504153157546</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0001246308887594</v>
+        <v>-0.007929628809388301</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0005017170329669999</v>
+        <v>0.0159322927892275</v>
       </c>
       <c r="N33" t="n">
-        <v>3.33409402099498</v>
+        <v>0.0528085438820685</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.347818042422461</v>
+        <v>0.316070633600217</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.954545454545455</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.417</v>
+        <v>0.553</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0012216169448179</v>
+        <v>0.0025844074316603</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0045849292150091</v>
+        <v>-0.0050167793467043</v>
       </c>
       <c r="M34" t="n">
-        <v>0.007909011247319001</v>
+        <v>0.009387624681430199</v>
       </c>
       <c r="N34" t="n">
-        <v>0.292953703793265</v>
+        <v>0.467343116032612</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5833898311308831</v>
+        <v>0.122822048097545</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.63953488372093</v>
+        <v>0.601156069364162</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.665</v>
+        <v>0.83</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0014164127861088</v>
+        <v>0.004138410385531</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0122612779353718</v>
+        <v>-0.0024947749539824</v>
       </c>
       <c r="M35" t="n">
-        <v>0.015692795340784</v>
+        <v>0.0121795886953902</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0184789665506704</v>
+        <v>0.498603660907357</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.274743862467399</v>
+        <v>0.0018236163579775</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8218390804597701</v>
+        <v>0.508670520231214</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.528</v>
+        <v>0.049</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0026238968979433</v>
+        <v>0.0013990862973303</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0042090800514501</v>
+        <v>0.0005997536945812</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0091237402030612</v>
+        <v>0.0023154566224877</v>
       </c>
       <c r="N36" t="n">
-        <v>0.49695017006502</v>
+        <v>2.85527815781709</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.159935327443749</v>
+        <v>0.0830243336851892</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.595375722543353</v>
+        <v>0.9306358381502891</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.82</v>
+        <v>8.25</v>
       </c>
       <c r="K37" t="n">
-        <v>0.003327011499816</v>
+        <v>0.192068802907619</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0030078066296338</v>
+        <v>-0.0138632798608095</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0100224667687861</v>
+        <v>0.476259720616</v>
       </c>
       <c r="N37" t="n">
-        <v>0.405733109733669</v>
+        <v>2.32810670191053</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Manawatu at us Fonterra Longburn</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.0260002524034799</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.502890173410405</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.0010009555392001</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.0001999178981937</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0018279117379435</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.04276640653083</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Extremely unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1816987.417</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5524893.755</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Palmerston North City</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Lower Manawatu</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Mana_11a</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Manawatu at us Fonterra Longburn</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.261832205072107</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.936046511627907</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.0517008028156985</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.0606354258798034</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.26421808802133</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.769357184757418</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1816987.417</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5524893.755</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Palmerston North City</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Lower Manawatu</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Mana_11a</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/ManawatuatusFonterraLongburn_73a0caa5ac.xlsx
+++ b/trend_results/Rivers/ManawatuatusFonterraLongburn_73a0caa5ac.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -130,22 +130,31 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Very likely improving</t>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
   </si>
   <si>
     <t>Extremely likely improving</t>
@@ -154,19 +163,13 @@
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
+    <t>Very unlikely increasing</t>
   </si>
   <si>
     <t>Likely increasing</t>
@@ -554,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,37 +651,37 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.047673681204639</v>
+        <v>0.120772797810552</v>
       </c>
       <c r="G2">
-        <v>0.0217391304347826</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H2">
-        <v>0.826086956521739</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.325</v>
+        <v>0.22</v>
       </c>
       <c r="K2">
-        <v>-0.0595018796992481</v>
+        <v>-0.0206647807637907</v>
       </c>
       <c r="L2">
-        <v>-0.178917821138385</v>
+        <v>-0.101302375450098</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0127873123498052</v>
       </c>
       <c r="N2">
-        <v>-18.3082706766917</v>
+        <v>-9.39308216535939</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>1816987.417</v>
@@ -687,19 +690,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -731,25 +734,25 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.58</v>
+        <v>10.35</v>
       </c>
       <c r="K3">
-        <v>-0.0886051212938021</v>
+        <v>-0.095326236263736</v>
       </c>
       <c r="L3">
-        <v>-0.265816236671274</v>
+        <v>-0.206230687008141</v>
       </c>
       <c r="M3">
-        <v>-0.0149077393279871</v>
+        <v>-0.0250849935829138</v>
       </c>
       <c r="N3">
-        <v>-0.837477516954652</v>
+        <v>-0.921026437330783</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>1816987.417</v>
@@ -758,19 +761,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -790,13 +793,13 @@
         <v>37</v>
       </c>
       <c r="F4">
-        <v>0.08583835613344851</v>
+        <v>0.168502581758873</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.527272727272727</v>
+        <v>0.490909090909091</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -805,22 +808,22 @@
         <v>0.019</v>
       </c>
       <c r="K4">
-        <v>0.001003434065934</v>
+        <v>0.0006911069063386</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-0.0005451544432479</v>
       </c>
       <c r="M4">
-        <v>0.0022203013658392</v>
+        <v>0.0018711886323506</v>
       </c>
       <c r="N4">
-        <v>5.28123192596877</v>
+        <v>3.63740477020365</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q4">
         <v>1816987.417</v>
@@ -829,19 +832,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -858,37 +861,37 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5">
-        <v>0.885963532980513</v>
+        <v>0.998825518668598</v>
       </c>
       <c r="G5">
         <v>0.0727272727272727</v>
       </c>
       <c r="H5">
-        <v>0.8545454545454541</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5">
-        <v>490</v>
+        <v>286.8</v>
       </c>
       <c r="K5">
-        <v>-36.4788242730721</v>
+        <v>-117.180462724936</v>
       </c>
       <c r="L5">
-        <v>-119.219259456332</v>
+        <v>-340.670173936413</v>
       </c>
       <c r="M5">
-        <v>21.7289616492543</v>
+        <v>-41.674965376492</v>
       </c>
       <c r="N5">
-        <v>-7.44465801491266</v>
+        <v>-40.8579019264072</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
         <v>42</v>
@@ -900,19 +903,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -926,13 +929,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
       </c>
       <c r="F6">
-        <v>0.930328548613985</v>
+        <v>0.0208925842019611</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -944,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0651007201651501</v>
+        <v>0.0592626114258233</v>
       </c>
       <c r="K6">
-        <v>-0.008183054914739901</v>
+        <v>0.008124753526673099</v>
       </c>
       <c r="L6">
-        <v>-0.0169626331604206</v>
+        <v>0.0011267163092697</v>
       </c>
       <c r="M6">
-        <v>0.0005589631368585</v>
+        <v>0.0155064267475401</v>
       </c>
       <c r="N6">
-        <v>-12.5698377744222</v>
+        <v>13.709746045941</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
         <v>43</v>
@@ -971,19 +974,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1003,37 +1006,37 @@
         <v>37</v>
       </c>
       <c r="F7">
-        <v>0.989475826349139</v>
+        <v>0.999310825675836</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.418181818181818</v>
+        <v>0.4</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="K7">
-        <v>-0.001003434065934</v>
+        <v>-0.0012482911825017</v>
       </c>
       <c r="L7">
         <v>-0.0020068681318681</v>
       </c>
       <c r="M7">
-        <v>-0.0003616134301579</v>
+        <v>-0.0008000660368015</v>
       </c>
       <c r="N7">
-        <v>-11.1492673992674</v>
+        <v>-15.6036397812714</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q7">
         <v>1816987.417</v>
@@ -1042,19 +1045,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1074,37 +1077,37 @@
         <v>37</v>
       </c>
       <c r="F8">
-        <v>0.0093922209163464</v>
+        <v>0.68080686959086</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.981818181818182</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.412</v>
+        <v>0.34</v>
       </c>
       <c r="K8">
-        <v>0.0411936090225564</v>
+        <v>-0.0094870129870129</v>
       </c>
       <c r="L8">
-        <v>0.0135459532771528</v>
+        <v>-0.0350059999549887</v>
       </c>
       <c r="M8">
-        <v>0.063830130014549</v>
+        <v>0.0135465260459664</v>
       </c>
       <c r="N8">
-        <v>9.99844879188262</v>
+        <v>-2.79029793735676</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q8">
         <v>1816987.417</v>
@@ -1113,19 +1116,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1145,7 +1148,7 @@
         <v>37</v>
       </c>
       <c r="F9">
-        <v>0.427961406259115</v>
+        <v>0.963583728996347</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1160,22 +1163,22 @@
         <v>7.67</v>
       </c>
       <c r="K9">
-        <v>-0.0031217948717948</v>
+        <v>0.0312179487179487</v>
       </c>
       <c r="L9">
-        <v>-0.0352749590275619</v>
+        <v>0.0032742501158991</v>
       </c>
       <c r="M9">
-        <v>0.0296317860149567</v>
+        <v>0.0618428142029604</v>
       </c>
       <c r="N9">
-        <v>-0.0407013672984981</v>
+        <v>0.40701367298499</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1816987.417</v>
@@ -1184,16 +1187,16 @@
         <v>5524893.755</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1213,37 +1216,37 @@
         <v>37</v>
       </c>
       <c r="F10">
-        <v>0.406831857883396</v>
+        <v>0.468688351186616</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.927272727272727</v>
+        <v>0.945454545454545</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.556</v>
+        <v>0.525</v>
       </c>
       <c r="K10">
         <v>0.0030395284327323</v>
       </c>
       <c r="L10">
-        <v>-0.0226981736021054</v>
+        <v>-0.0250038549340191</v>
       </c>
       <c r="M10">
-        <v>0.0465974097522114</v>
+        <v>0.0215351948551391</v>
       </c>
       <c r="N10">
-        <v>0.54667777567128</v>
+        <v>0.578957796710918</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q10">
         <v>1816987.417</v>
@@ -1252,19 +1255,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1284,7 +1287,7 @@
         <v>37</v>
       </c>
       <c r="F11">
-        <v>0.0233564956745913</v>
+        <v>0.65368360797902</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1296,25 +1299,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="K11">
-        <v>0.0399453178400547</v>
+        <v>-0.0051227208976157</v>
       </c>
       <c r="L11">
-        <v>0.0005462095065887</v>
+        <v>-0.0458350169057853</v>
       </c>
       <c r="M11">
-        <v>0.06388876722988369</v>
+        <v>0.024383293739285</v>
       </c>
       <c r="N11">
-        <v>4.69944915765349</v>
+        <v>-0.6098477259066321</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Q11">
         <v>1816987.417</v>
@@ -1323,19 +1326,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1355,7 +1358,7 @@
         <v>37</v>
       </c>
       <c r="F12">
-        <v>0.278183940654727</v>
+        <v>0.980071420592296</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1367,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.058</v>
+        <v>0.05</v>
       </c>
       <c r="K12">
-        <v>0.0020991379310344</v>
+        <v>-0.005797619047619</v>
       </c>
       <c r="L12">
-        <v>-0.0040137362637362</v>
+        <v>-0.0106522307559265</v>
       </c>
       <c r="M12">
-        <v>0.0088867726325453</v>
+        <v>-0.0018233248793872</v>
       </c>
       <c r="N12">
-        <v>3.6192033293698</v>
+        <v>-11.5952380952381</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q12">
         <v>1816987.417</v>
@@ -1394,19 +1397,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1420,13 +1423,13 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
       </c>
       <c r="F13">
-        <v>0.214381346846502</v>
+        <v>0.377024787357615</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1438,25 +1441,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.9</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="K13">
-        <v>0.771210753532182</v>
+        <v>0.210721153846154</v>
       </c>
       <c r="L13">
-        <v>-0.74641847627889</v>
+        <v>-0.727490462112268</v>
       </c>
       <c r="M13">
-        <v>3.11296854276746</v>
+        <v>2.98887496707527</v>
       </c>
       <c r="N13">
-        <v>7.07532801405671</v>
+        <v>2.37566126094875</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q13">
         <v>1816987.417</v>
@@ -1465,19 +1468,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1497,37 +1500,37 @@
         <v>37</v>
       </c>
       <c r="F14">
-        <v>0.0003728238642779</v>
+        <v>0.000662727259327</v>
       </c>
       <c r="G14">
-        <v>0.02</v>
+        <v>0.021505376344086</v>
       </c>
       <c r="H14">
-        <v>0.75</v>
+        <v>0.752688172043011</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.355</v>
+        <v>0.32</v>
       </c>
       <c r="K14">
-        <v>-0.0663548576586387</v>
+        <v>-0.0518747392986595</v>
       </c>
       <c r="L14">
-        <v>-0.119913487133984</v>
+        <v>-0.105283390577455</v>
       </c>
       <c r="M14">
-        <v>-0.0293223074756142</v>
+        <v>-0.0220030120481927</v>
       </c>
       <c r="N14">
-        <v>-18.6915091996165</v>
+        <v>-16.2108560308311</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q14">
         <v>1816987.417</v>
@@ -1536,19 +1539,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1568,13 +1571,13 @@
         <v>37</v>
       </c>
       <c r="F15">
-        <v>0.030925292757219</v>
+        <v>0.008305625558928</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.893805309734513</v>
+        <v>0.903508771929825</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1583,22 +1586,22 @@
         <v>10.54</v>
       </c>
       <c r="K15">
-        <v>-0.0602060439560445</v>
+        <v>-0.0679720853858785</v>
       </c>
       <c r="L15">
-        <v>-0.100343406593406</v>
+        <v>-0.104927871003923</v>
       </c>
       <c r="M15">
-        <v>-0.0074845976042336</v>
+        <v>-0.0233855820507063</v>
       </c>
       <c r="N15">
-        <v>-0.571214838292642</v>
+        <v>-0.644896445786323</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q15">
         <v>1816987.417</v>
@@ -1607,19 +1610,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1639,10 +1642,10 @@
         <v>37</v>
       </c>
       <c r="F16">
-        <v>0.0579923331655443</v>
+        <v>0.1933661889667</v>
       </c>
       <c r="G16">
-        <v>0.0526315789473684</v>
+        <v>0.043859649122807</v>
       </c>
       <c r="H16">
         <v>0.271929824561404</v>
@@ -1651,25 +1654,25 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="K16">
-        <v>0.0004191049913941</v>
+        <v>0.0002258812615955</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>-0.0002303754556235</v>
       </c>
       <c r="M16">
-        <v>0.0009401544401544</v>
+        <v>0.000692635903919</v>
       </c>
       <c r="N16">
-        <v>2.32836106330082</v>
+        <v>1.18884874523972</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q16">
         <v>1816987.417</v>
@@ -1678,19 +1681,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1710,37 +1713,37 @@
         <v>37</v>
       </c>
       <c r="F17">
-        <v>0.0282043694426581</v>
+        <v>0.358501729552745</v>
       </c>
       <c r="G17">
         <v>0.043859649122807</v>
       </c>
       <c r="H17">
-        <v>0.780701754385965</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="K17">
-        <v>19.5060080106809</v>
+        <v>3.06932773109244</v>
       </c>
       <c r="L17">
-        <v>2.50728361617752</v>
+        <v>-11.5790290435812</v>
       </c>
       <c r="M17">
-        <v>52.1785714285714</v>
+        <v>18.3746220706126</v>
       </c>
       <c r="N17">
-        <v>6.17278734515219</v>
+        <v>1.06205111802506</v>
       </c>
       <c r="O17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Q17">
         <v>1816987.417</v>
@@ -1749,19 +1752,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1775,43 +1778,43 @@
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>37</v>
       </c>
       <c r="F18">
-        <v>0.298571825266898</v>
+        <v>0.383099458960617</v>
       </c>
       <c r="G18">
-        <v>0.0740740740740741</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H18">
-        <v>0.944444444444444</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18">
-        <v>0.0567487616998952</v>
+        <v>0.0633043511537109</v>
       </c>
       <c r="K18">
-        <v>0.0007623563633954</v>
+        <v>0.0005676819175383</v>
       </c>
       <c r="L18">
-        <v>-0.0018958812778821</v>
+        <v>-0.0014282824994807</v>
       </c>
       <c r="M18">
-        <v>0.0032233883596638</v>
+        <v>0.0036361820264247</v>
       </c>
       <c r="N18">
-        <v>1.34338854374841</v>
+        <v>0.896750234687628</v>
       </c>
       <c r="O18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q18">
         <v>1816987.417</v>
@@ -1820,19 +1823,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1852,7 +1855,7 @@
         <v>37</v>
       </c>
       <c r="F19">
-        <v>0.995060235151616</v>
+        <v>0.999994288639372</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1867,22 +1870,22 @@
         <v>0.011</v>
       </c>
       <c r="K19">
-        <v>-0.0005017170329669999</v>
+        <v>-0.000799671592775</v>
       </c>
       <c r="L19">
-        <v>-0.0008916917749965</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="M19">
-        <v>-0.0001999178981937</v>
+        <v>-0.0005000254285542</v>
       </c>
       <c r="N19">
-        <v>-4.56106393606393</v>
+        <v>-7.26974175250037</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q19">
         <v>1816987.417</v>
@@ -1891,19 +1894,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1923,37 +1926,37 @@
         <v>37</v>
       </c>
       <c r="F20">
-        <v>0.09325239312731071</v>
+        <v>0.832373400019619</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.9649122807017541</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.416</v>
+        <v>0.4115</v>
       </c>
       <c r="K20">
-        <v>0.007916748768472899</v>
+        <v>-0.0063280395136778</v>
       </c>
       <c r="L20">
-        <v>-0.0016798506822813</v>
+        <v>-0.0157258888225381</v>
       </c>
       <c r="M20">
-        <v>0.0173086385350799</v>
+        <v>0.0035905458991853</v>
       </c>
       <c r="N20">
-        <v>1.90306460780599</v>
+        <v>-1.53779818072365</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q20">
         <v>1816987.417</v>
@@ -1962,19 +1965,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1994,13 +1997,13 @@
         <v>37</v>
       </c>
       <c r="F21">
-        <v>0.025024396726918</v>
+        <v>0.360307914002474</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.631578947368421</v>
+        <v>0.62280701754386</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2009,22 +2012,22 @@
         <v>7.67</v>
       </c>
       <c r="K21">
-        <v>-0.0182018272425251</v>
+        <v>-0.0027607709750566</v>
       </c>
       <c r="L21">
-        <v>-0.0355360706773505</v>
+        <v>-0.0176958144703513</v>
       </c>
       <c r="M21">
-        <v>-0.0028275668879508</v>
+        <v>0.0107795292715904</v>
       </c>
       <c r="N21">
-        <v>-0.237311958833443</v>
+        <v>-0.0359944064544541</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>1816987.417</v>
@@ -2033,16 +2036,16 @@
         <v>5524893.755</v>
       </c>
       <c r="S21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2062,37 +2065,37 @@
         <v>37</v>
       </c>
       <c r="F22">
-        <v>0.0902998082469621</v>
+        <v>0.688650441283929</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.843478260869565</v>
+        <v>0.834782608695652</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.556</v>
+        <v>0.55</v>
       </c>
       <c r="K22">
-        <v>0.0106384604555125</v>
+        <v>-0.0027092719780219</v>
       </c>
       <c r="L22">
-        <v>-0.0020265905458787</v>
+        <v>-0.013311913522194</v>
       </c>
       <c r="M22">
-        <v>0.0210683922606197</v>
+        <v>0.008725898785827101</v>
       </c>
       <c r="N22">
-        <v>1.91339216825764</v>
+        <v>-0.492594905094904</v>
       </c>
       <c r="O22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q22">
         <v>1816987.417</v>
@@ -2101,19 +2104,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2133,13 +2136,13 @@
         <v>37</v>
       </c>
       <c r="F23">
-        <v>0.0004167811273196</v>
+        <v>0.181070863235201</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.684210526315789</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2148,22 +2151,22 @@
         <v>0.835</v>
       </c>
       <c r="K23">
-        <v>0.0262884405670665</v>
+        <v>0.005797619047619</v>
       </c>
       <c r="L23">
-        <v>0.0149271641353516</v>
+        <v>-0.003838480945643</v>
       </c>
       <c r="M23">
-        <v>0.0366435198774868</v>
+        <v>0.0198851878110407</v>
       </c>
       <c r="N23">
-        <v>3.14831623557683</v>
+        <v>0.694325634445393</v>
       </c>
       <c r="O23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q23">
         <v>1816987.417</v>
@@ -2172,19 +2175,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2204,37 +2207,37 @@
         <v>37</v>
       </c>
       <c r="F24">
-        <v>0.0017642161763931</v>
+        <v>0.285750488815989</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.6052631578947369</v>
+        <v>0.62280701754386</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05</v>
+        <v>0.0495</v>
       </c>
       <c r="K24">
-        <v>0.0025489532019704</v>
+        <v>0.0005072916666666</v>
       </c>
       <c r="L24">
-        <v>0.0011255216426924</v>
+        <v>-0.0009008290075538001</v>
       </c>
       <c r="M24">
-        <v>0.0045562190983054</v>
+        <v>0.001947219446992</v>
       </c>
       <c r="N24">
-        <v>5.09790640394088</v>
+        <v>1.02483164983165</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q24">
         <v>1816987.417</v>
@@ -2243,19 +2246,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2275,37 +2278,37 @@
         <v>37</v>
       </c>
       <c r="F25">
-        <v>0.0002114934819739</v>
+        <v>0.0158475068894866</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.929824561403509</v>
+        <v>0.93859649122807</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.445</v>
+        <v>8.65</v>
       </c>
       <c r="K25">
-        <v>1.05356306990881</v>
+        <v>0.460315068493151</v>
       </c>
       <c r="L25">
-        <v>0.426880366295803</v>
+        <v>0.07046876787233811</v>
       </c>
       <c r="M25">
-        <v>2.2417351817248</v>
+        <v>1.16287931330646</v>
       </c>
       <c r="N25">
-        <v>12.4755840131298</v>
+        <v>5.32156148546995</v>
       </c>
       <c r="O25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q25">
         <v>1816987.417</v>
@@ -2314,19 +2317,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2346,37 +2349,37 @@
         <v>37</v>
       </c>
       <c r="F26">
-        <v>2.78086207194939E-06</v>
+        <v>2.1415235296196E-07</v>
       </c>
       <c r="G26">
-        <v>0.013986013986014</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="H26">
-        <v>0.636363636363636</v>
+        <v>0.63768115942029</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.63</v>
+        <v>0.595</v>
       </c>
       <c r="K26">
-        <v>-0.0601588235294118</v>
+        <v>-0.0766866883116883</v>
       </c>
       <c r="L26">
-        <v>-0.09149315668656451</v>
+        <v>-0.107791079459323</v>
       </c>
       <c r="M26">
-        <v>-0.0340671828190322</v>
+        <v>-0.0470451344230925</v>
       </c>
       <c r="N26">
-        <v>-9.549019607843141</v>
+        <v>-12.8885190439812</v>
       </c>
       <c r="O26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q26">
         <v>1816987.417</v>
@@ -2385,19 +2388,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2417,7 +2420,7 @@
         <v>37</v>
       </c>
       <c r="F27">
-        <v>0.000269506302483</v>
+        <v>0.0007621471053289</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2429,25 +2432,25 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.62</v>
+        <v>10.58</v>
       </c>
       <c r="K27">
-        <v>-0.0602060439560445</v>
+        <v>-0.0565836310141408</v>
       </c>
       <c r="L27">
-        <v>-0.091140805211179</v>
+        <v>-0.0876023106220828</v>
       </c>
       <c r="M27">
-        <v>-0.0299165243386305</v>
+        <v>-0.0243800387455605</v>
       </c>
       <c r="N27">
-        <v>-0.566911901657669</v>
+        <v>-0.534816928300007</v>
       </c>
       <c r="O27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q27">
         <v>1816987.417</v>
@@ -2456,19 +2459,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2482,19 +2485,19 @@
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28">
-        <v>0.173773484866409</v>
+        <v>0.250511727305333</v>
       </c>
       <c r="G28">
-        <v>0.0578034682080925</v>
+        <v>0.0520231213872832</v>
       </c>
       <c r="H28">
-        <v>0.196531791907514</v>
+        <v>0.184971098265896</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2503,22 +2506,22 @@
         <v>0.018</v>
       </c>
       <c r="K28">
-        <v>0.0001051578219112</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>-0.0001256146798257</v>
       </c>
       <c r="M28">
-        <v>0.0003636137381781</v>
+        <v>0.0003530388982425</v>
       </c>
       <c r="N28">
-        <v>0.584210121728958</v>
+        <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="Q28">
         <v>1816987.417</v>
@@ -2527,19 +2530,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2559,37 +2562,37 @@
         <v>37</v>
       </c>
       <c r="F29">
-        <v>0.0710830453868144</v>
+        <v>0.221627977349663</v>
       </c>
       <c r="G29">
         <v>0.0289017341040462</v>
       </c>
       <c r="H29">
-        <v>0.774566473988439</v>
+        <v>0.791907514450867</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="K29">
-        <v>7.83307060255144</v>
+        <v>3.60586156024014</v>
       </c>
       <c r="L29">
-        <v>-0.681203991197922</v>
+        <v>-4.34600800581986</v>
       </c>
       <c r="M29">
-        <v>20.4294425230096</v>
+        <v>12.3442600392348</v>
       </c>
       <c r="N29">
-        <v>2.61102353418381</v>
+        <v>1.25203526397227</v>
       </c>
       <c r="O29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q29">
         <v>1816987.417</v>
@@ -2598,19 +2601,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2630,7 +2633,7 @@
         <v>37</v>
       </c>
       <c r="F30">
-        <v>0.356724053106477</v>
+        <v>0.333199620645685</v>
       </c>
       <c r="G30">
         <v>0.0783132530120482</v>
@@ -2642,25 +2645,25 @@
         <v>2</v>
       </c>
       <c r="J30">
-        <v>0.0566269957463997</v>
+        <v>0.0615829941065436</v>
       </c>
       <c r="K30">
-        <v>0.0003173217069993</v>
+        <v>0.0003550165882348</v>
       </c>
       <c r="L30">
-        <v>-0.0007197633136902</v>
+        <v>-0.0006114263194913</v>
       </c>
       <c r="M30">
-        <v>0.0017417164679854</v>
+        <v>0.0018142259864822</v>
       </c>
       <c r="N30">
-        <v>0.560371785253263</v>
+        <v>0.57648478023115</v>
       </c>
       <c r="O30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q30">
         <v>1816987.417</v>
@@ -2669,19 +2672,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2698,16 +2701,16 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31">
-        <v>0.133826023764567</v>
+        <v>0.219526358081126</v>
       </c>
       <c r="G31">
-        <v>0.0429447852760736</v>
+        <v>0.0404624277456647</v>
       </c>
       <c r="H31">
-        <v>0.245398773006135</v>
+        <v>0.23121387283237</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2716,22 +2719,22 @@
         <v>0.01</v>
       </c>
       <c r="K31">
-        <v>0.0001545643922868</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0003334094020994</v>
+        <v>0.0002549670874522</v>
       </c>
       <c r="N31">
-        <v>1.54564392286886</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="Q31">
         <v>1816987.417</v>
@@ -2740,19 +2743,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2772,37 +2775,37 @@
         <v>37</v>
       </c>
       <c r="F32">
-        <v>0.277096047413894</v>
+        <v>0.843401410943501</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.950920245398773</v>
+        <v>0.947976878612717</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.42</v>
+        <v>0.412</v>
       </c>
       <c r="K32">
-        <v>0.002332736264943</v>
+        <v>-0.0032282730427467</v>
       </c>
       <c r="L32">
-        <v>-0.0033237703680161</v>
+        <v>-0.009425694236697301</v>
       </c>
       <c r="M32">
-        <v>0.008116967930759399</v>
+        <v>0.00206400027503</v>
       </c>
       <c r="N32">
-        <v>0.555413396415013</v>
+        <v>-0.783561418142409</v>
       </c>
       <c r="O32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q32">
         <v>1816987.417</v>
@@ -2811,19 +2814,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2843,34 +2846,34 @@
         <v>37</v>
       </c>
       <c r="F33">
-        <v>0.716832274249759</v>
+        <v>0.082572363686646</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.604651162790698</v>
+        <v>0.593023255813954</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.67</v>
+        <v>7.7</v>
       </c>
       <c r="K33">
-        <v>0.0040504153157546</v>
+        <v>-0.0090544309864867</v>
       </c>
       <c r="L33">
-        <v>-0.007929628809388301</v>
+        <v>-0.0199723735539814</v>
       </c>
       <c r="M33">
-        <v>0.0159322927892275</v>
+        <v>0.0015644283174201</v>
       </c>
       <c r="N33">
-        <v>0.0528085438820685</v>
+        <v>-0.117590012811516</v>
       </c>
       <c r="O33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P33" t="s">
         <v>51</v>
@@ -2882,16 +2885,16 @@
         <v>5524893.755</v>
       </c>
       <c r="S33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2911,37 +2914,37 @@
         <v>37</v>
       </c>
       <c r="F34">
-        <v>0.316070633600217</v>
+        <v>0.279778574188909</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.844827586206897</v>
+        <v>0.850574712643678</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.553</v>
+        <v>0.53635</v>
       </c>
       <c r="K34">
-        <v>0.0025844074316603</v>
+        <v>0.0029714506822776</v>
       </c>
       <c r="L34">
-        <v>-0.0050167793467043</v>
+        <v>-0.003790788481926</v>
       </c>
       <c r="M34">
-        <v>0.009387624681430199</v>
+        <v>0.009324092557118101</v>
       </c>
       <c r="N34">
-        <v>0.467343116032612</v>
+        <v>0.554013364832224</v>
       </c>
       <c r="O34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P34" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="Q34">
         <v>1816987.417</v>
@@ -2950,19 +2953,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2982,37 +2985,37 @@
         <v>37</v>
       </c>
       <c r="F35">
-        <v>0.122822048097545</v>
+        <v>0.122893589032447</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.601156069364162</v>
+        <v>0.5895953757225429</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.83</v>
+        <v>0.825</v>
       </c>
       <c r="K35">
-        <v>0.004138410385531</v>
+        <v>0.0042945407088019</v>
       </c>
       <c r="L35">
-        <v>-0.0024947749539824</v>
+        <v>-0.0022827445824748</v>
       </c>
       <c r="M35">
-        <v>0.0121795886953902</v>
+        <v>0.0119621289604898</v>
       </c>
       <c r="N35">
-        <v>0.498603660907357</v>
+        <v>0.5205503889456921</v>
       </c>
       <c r="O35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="Q35">
         <v>1816987.417</v>
@@ -3021,19 +3024,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3053,37 +3056,37 @@
         <v>37</v>
       </c>
       <c r="F36">
-        <v>0.0018236163579775</v>
+        <v>0.013905229379788</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.508670520231214</v>
+        <v>0.491329479768786</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.049</v>
+        <v>0.047</v>
       </c>
       <c r="K36">
-        <v>0.0013990862973303</v>
+        <v>0.0008717183770883</v>
       </c>
       <c r="L36">
-        <v>0.0005997536945812</v>
+        <v>0.0002340664787386</v>
       </c>
       <c r="M36">
-        <v>0.0023154566224877</v>
+        <v>0.001635269617162</v>
       </c>
       <c r="N36">
-        <v>2.85527815781709</v>
+        <v>1.85471995125171</v>
       </c>
       <c r="O36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q36">
         <v>1816987.417</v>
@@ -3092,19 +3095,19 @@
         <v>5524893.755</v>
       </c>
       <c r="S36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3124,37 +3127,37 @@
         <v>37</v>
       </c>
       <c r="F37">
-        <v>0.0830243336851892</v>
+        <v>0.135916152031989</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.9306358381502891</v>
+        <v>0.936416184971098</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>8.25</v>
+        <v>6.91</v>
       </c>
       <c r="K37">
-        <v>0.192068802907619</v>
+        <v>0.13268973806366</v>
       </c>
       <c r="L37">
-        <v>-0.0138632798608095</v>
+        <v>-0.0405800809616263</v>
       </c>
       <c r="M37">
-        <v>0.476259720616</v>
+        <v>0.369946291590559</v>
       </c>
       <c r="N37">
-        <v>2.32810670191053</v>
+        <v>1.92025670135543</v>
       </c>
       <c r="O37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q37">
         <v>1816987.417</v>
@@ -3163,19 +3166,726 @@
         <v>5524893.755</v>
       </c>
       <c r="S37" t="s">
+        <v>53</v>
+      </c>
+      <c r="T37" t="s">
+        <v>54</v>
+      </c>
+      <c r="U37" t="s">
+        <v>55</v>
+      </c>
+      <c r="V37" t="s">
+        <v>56</v>
+      </c>
+      <c r="W37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>2.46027070605059E-06</v>
+      </c>
+      <c r="G38">
+        <v>0.03125</v>
+      </c>
+      <c r="H38">
+        <v>0.59375</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0.6</v>
+      </c>
+      <c r="K38">
+        <v>-0.0445707973911214</v>
+      </c>
+      <c r="L38">
+        <v>-0.065919947157468</v>
+      </c>
+      <c r="M38">
+        <v>-0.0250886360187201</v>
+      </c>
+      <c r="N38">
+        <v>-7.42846623185357</v>
+      </c>
+      <c r="O38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P38" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q38">
+        <v>1816987.417</v>
+      </c>
+      <c r="R38">
+        <v>5524893.755</v>
+      </c>
+      <c r="S38" t="s">
+        <v>53</v>
+      </c>
+      <c r="T38" t="s">
+        <v>54</v>
+      </c>
+      <c r="U38" t="s">
+        <v>55</v>
+      </c>
+      <c r="V38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39">
+        <v>3.70186831966102E-07</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.836734693877551</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>10.62</v>
+      </c>
+      <c r="K39">
+        <v>-0.0773015873015873</v>
+      </c>
+      <c r="L39">
+        <v>-0.0984462840903518</v>
+      </c>
+      <c r="M39">
+        <v>-0.0520184145533555</v>
+      </c>
+      <c r="N39">
+        <v>-0.727886886078976</v>
+      </c>
+      <c r="O39" t="s">
+        <v>39</v>
+      </c>
+      <c r="P39" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q39">
+        <v>1816987.417</v>
+      </c>
+      <c r="R39">
+        <v>5524893.755</v>
+      </c>
+      <c r="S39" t="s">
+        <v>53</v>
+      </c>
+      <c r="T39" t="s">
+        <v>54</v>
+      </c>
+      <c r="U39" t="s">
+        <v>55</v>
+      </c>
+      <c r="V39" t="s">
+        <v>56</v>
+      </c>
+      <c r="W39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40">
+        <v>0.603243391958204</v>
+      </c>
+      <c r="G40">
+        <v>0.0505050505050505</v>
+      </c>
+      <c r="H40">
+        <v>0.176767676767677</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0.019</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>-0.0002496582365003</v>
+      </c>
+      <c r="M40">
+        <v>0.0001108889035459</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>39</v>
+      </c>
+      <c r="P40" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q40">
+        <v>1816987.417</v>
+      </c>
+      <c r="R40">
+        <v>5524893.755</v>
+      </c>
+      <c r="S40" t="s">
+        <v>53</v>
+      </c>
+      <c r="T40" t="s">
+        <v>54</v>
+      </c>
+      <c r="U40" t="s">
+        <v>55</v>
+      </c>
+      <c r="V40" t="s">
+        <v>56</v>
+      </c>
+      <c r="W40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41">
+        <v>0.259545098738808</v>
+      </c>
+      <c r="G41">
+        <v>0.0252525252525253</v>
+      </c>
+      <c r="H41">
+        <v>0.772727272727273</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>287.4</v>
+      </c>
+      <c r="K41">
+        <v>2.50913348946136</v>
+      </c>
+      <c r="L41">
+        <v>-3.78833850883966</v>
+      </c>
+      <c r="M41">
+        <v>9.849693304091231</v>
+      </c>
+      <c r="N41">
+        <v>0.8730457513783439</v>
+      </c>
+      <c r="O41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q41">
+        <v>1816987.417</v>
+      </c>
+      <c r="R41">
+        <v>5524893.755</v>
+      </c>
+      <c r="S41" t="s">
+        <v>53</v>
+      </c>
+      <c r="T41" t="s">
+        <v>54</v>
+      </c>
+      <c r="U41" t="s">
+        <v>55</v>
+      </c>
+      <c r="V41" t="s">
+        <v>56</v>
+      </c>
+      <c r="W41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42">
+        <v>0.236595615802649</v>
+      </c>
+      <c r="G42">
+        <v>0.07329842931937169</v>
+      </c>
+      <c r="H42">
+        <v>0.926701570680628</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>0.0589444528284641</v>
+      </c>
+      <c r="K42">
+        <v>0.000513092855712</v>
+      </c>
+      <c r="L42">
+        <v>-0.0004672216381696</v>
+      </c>
+      <c r="M42">
+        <v>0.0016067196985861</v>
+      </c>
+      <c r="N42">
+        <v>0.870468434417809</v>
+      </c>
+      <c r="O42" t="s">
+        <v>39</v>
+      </c>
+      <c r="P42" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q42">
+        <v>1816987.417</v>
+      </c>
+      <c r="R42">
+        <v>5524893.755</v>
+      </c>
+      <c r="S42" t="s">
+        <v>53</v>
+      </c>
+      <c r="T42" t="s">
+        <v>54</v>
+      </c>
+      <c r="U42" t="s">
+        <v>55</v>
+      </c>
+      <c r="V42" t="s">
+        <v>56</v>
+      </c>
+      <c r="W42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43">
+        <v>0.76726318357657</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0.94413407821229</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.418</v>
+      </c>
+      <c r="K43">
+        <v>-0.0025250349036209</v>
+      </c>
+      <c r="L43">
+        <v>-0.008436078867317299</v>
+      </c>
+      <c r="M43">
+        <v>0.0028122086004894</v>
+      </c>
+      <c r="N43">
+        <v>-0.604075335794491</v>
+      </c>
+      <c r="O43" t="s">
+        <v>39</v>
+      </c>
+      <c r="P43" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43">
+        <v>1816987.417</v>
+      </c>
+      <c r="R43">
+        <v>5524893.755</v>
+      </c>
+      <c r="S43" t="s">
+        <v>53</v>
+      </c>
+      <c r="T43" t="s">
+        <v>54</v>
+      </c>
+      <c r="U43" t="s">
+        <v>55</v>
+      </c>
+      <c r="V43" t="s">
+        <v>56</v>
+      </c>
+      <c r="W43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44">
+        <v>0.71994307154376</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.5837563451776649</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>7.67</v>
+      </c>
+      <c r="K44">
+        <v>0.0032855524071297</v>
+      </c>
+      <c r="L44">
+        <v>-0.0066681880419899</v>
+      </c>
+      <c r="M44">
+        <v>0.0132349520585001</v>
+      </c>
+      <c r="N44">
+        <v>0.0428364068726175</v>
+      </c>
+      <c r="O44" t="s">
+        <v>39</v>
+      </c>
+      <c r="P44" t="s">
         <v>52</v>
       </c>
-      <c r="T37" t="s">
-        <v>53</v>
-      </c>
-      <c r="U37" t="s">
-        <v>54</v>
-      </c>
-      <c r="V37" t="s">
-        <v>55</v>
-      </c>
-      <c r="W37" t="s">
-        <v>60</v>
+      <c r="Q44">
+        <v>1816987.417</v>
+      </c>
+      <c r="R44">
+        <v>5524893.755</v>
+      </c>
+      <c r="S44" t="s">
+        <v>53</v>
+      </c>
+      <c r="T44" t="s">
+        <v>54</v>
+      </c>
+      <c r="U44" t="s">
+        <v>55</v>
+      </c>
+      <c r="V44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45">
+        <v>0.346819086644122</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0.85427135678392</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.529</v>
+      </c>
+      <c r="K45">
+        <v>0.0011972138759901</v>
+      </c>
+      <c r="L45">
+        <v>-0.0042429167395672</v>
+      </c>
+      <c r="M45">
+        <v>0.0067672592570693</v>
+      </c>
+      <c r="N45">
+        <v>0.226316422682451</v>
+      </c>
+      <c r="O45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P45" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q45">
+        <v>1816987.417</v>
+      </c>
+      <c r="R45">
+        <v>5524893.755</v>
+      </c>
+      <c r="S45" t="s">
+        <v>53</v>
+      </c>
+      <c r="T45" t="s">
+        <v>54</v>
+      </c>
+      <c r="U45" t="s">
+        <v>55</v>
+      </c>
+      <c r="V45" t="s">
+        <v>56</v>
+      </c>
+      <c r="W45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46">
+        <v>0.105416931192199</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.474747474747475</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.0475</v>
+      </c>
+      <c r="K46">
+        <v>0.00050075404442</v>
+      </c>
+      <c r="L46">
+        <v>-0.0001389428603671</v>
+      </c>
+      <c r="M46">
+        <v>0.001007720865704</v>
+      </c>
+      <c r="N46">
+        <v>1.05421904088436</v>
+      </c>
+      <c r="O46" t="s">
+        <v>39</v>
+      </c>
+      <c r="P46" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q46">
+        <v>1816987.417</v>
+      </c>
+      <c r="R46">
+        <v>5524893.755</v>
+      </c>
+      <c r="S46" t="s">
+        <v>53</v>
+      </c>
+      <c r="T46" t="s">
+        <v>54</v>
+      </c>
+      <c r="U46" t="s">
+        <v>55</v>
+      </c>
+      <c r="V46" t="s">
+        <v>56</v>
+      </c>
+      <c r="W46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47">
+        <v>0.230921437678726</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0.923857868020305</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>7.04</v>
+      </c>
+      <c r="K47">
+        <v>0.0520784206196874</v>
+      </c>
+      <c r="L47">
+        <v>-0.0459323001963042</v>
+      </c>
+      <c r="M47">
+        <v>0.246913816697231</v>
+      </c>
+      <c r="N47">
+        <v>0.739750292893287</v>
+      </c>
+      <c r="O47" t="s">
+        <v>39</v>
+      </c>
+      <c r="P47" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q47">
+        <v>1816987.417</v>
+      </c>
+      <c r="R47">
+        <v>5524893.755</v>
+      </c>
+      <c r="S47" t="s">
+        <v>53</v>
+      </c>
+      <c r="T47" t="s">
+        <v>54</v>
+      </c>
+      <c r="U47" t="s">
+        <v>55</v>
+      </c>
+      <c r="V47" t="s">
+        <v>56</v>
+      </c>
+      <c r="W47" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
